--- a/Files/CLRS.xlsx
+++ b/Files/CLRS.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonikagautami/Learnings/Learnings/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189C4DF-BFC7-D341-B20F-FC7A89DDF6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0D0103-081D-4746-A172-8089C2FC3D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" activeTab="2" xr2:uid="{C8130AC2-BB3D-4241-8740-8BC2B3B0C59A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" activeTab="3" xr2:uid="{C8130AC2-BB3D-4241-8740-8BC2B3B0C59A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="2 n" sheetId="8" r:id="rId5"/>
+    <sheet name="factorial n" sheetId="7" r:id="rId6"/>
+    <sheet name="n logn " sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>n</t>
   </si>
@@ -54,12 +58,141 @@
   <si>
     <t>8*n^2 - 64*n*logn</t>
   </si>
+  <si>
+    <t>1 sec</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>1 mon</t>
+  </si>
+  <si>
+    <t>1 yr</t>
+  </si>
+  <si>
+    <t>1 century</t>
+  </si>
+  <si>
+    <t>SquareRoot n</t>
+  </si>
+  <si>
+    <t>n * log n</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>n^3</t>
+  </si>
+  <si>
+    <t>2^n</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>log n (base 2)</t>
+  </si>
+  <si>
+    <t>Algorithm takes f(n) microseconds</t>
+  </si>
+  <si>
+    <t>1 sec = 10^6 MicroSecs</t>
+  </si>
+  <si>
+    <t>n = 2^ 1,000,000</t>
+  </si>
+  <si>
+    <t>log n = 10^6 = 1,000,000</t>
+  </si>
+  <si>
+    <t>n^1/2 = 10^6</t>
+  </si>
+  <si>
+    <t>n = 10^12 [Taking Square both sides]</t>
+  </si>
+  <si>
+    <t>n =10^6</t>
+  </si>
+  <si>
+    <t>n * logn = 10^6</t>
+  </si>
+  <si>
+    <t>n^2 = 10^6</t>
+  </si>
+  <si>
+    <t>n = 10^3 [Taking Sq.Root both sides]</t>
+  </si>
+  <si>
+    <t>n^3 = 10^6</t>
+  </si>
+  <si>
+    <t>n = 10^2</t>
+  </si>
+  <si>
+    <t>2^n = 10^6</t>
+  </si>
+  <si>
+    <t>log 2 ^n = log 10^6</t>
+  </si>
+  <si>
+    <t>n = log 10^6</t>
+  </si>
+  <si>
+    <t>n =6 * log 10 (base 2)</t>
+  </si>
+  <si>
+    <t>As 20 is between 2^3 &amp; 2^4 =&gt; n can be between 18 &amp; 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 min = 60 secs </t>
+  </si>
+  <si>
+    <t>n logn</t>
+  </si>
+  <si>
+    <t>As Per Tab: n logn -&gt; 62746</t>
+  </si>
+  <si>
+    <t>n! = 10^6</t>
+  </si>
+  <si>
+    <t>As per Tab: factorial n =&gt; n = 9</t>
+  </si>
+  <si>
+    <t>1000000*60</t>
+  </si>
+  <si>
+    <t>n = 11 For 1 min</t>
+  </si>
+  <si>
+    <t>n =11</t>
+  </si>
+  <si>
+    <t>As Number must be Ineteger -&gt; n = 19</t>
+  </si>
+  <si>
+    <t>As per Tab: 2n -&gt; n =19</t>
+  </si>
+  <si>
+    <t>log n = 6*10^7</t>
+  </si>
+  <si>
+    <t>n = 2^(6*10^7)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,8 +214,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,10 +262,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5070,7 +5231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047E78B-4DA9-AE48-BA11-017689CC454C}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5549,4 +5710,3948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D4AABD-C874-9D42-8918-B52364DE43F4}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="3" max="3" width="66.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6722A6-E1D3-E841-A89E-849BC7B57A1A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <f>6*LOG(10,2)</f>
+        <v>19.931568569324178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B9EEC-2E12-FD42-B22B-99B6B9F97F4A}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>FACT(A1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:D16" si="0">FACT(A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>40320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>362880</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>3628800</v>
+      </c>
+      <c r="E10">
+        <f>1000000*60</f>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>39916800</v>
+      </c>
+      <c r="D11" s="9">
+        <v>39916800</v>
+      </c>
+      <c r="E11" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>479001600</v>
+      </c>
+      <c r="D12" s="9">
+        <v>479001600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6227020800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>87178291200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1307674368000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>20922789888000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B223C84D-5C4B-5248-946C-0CABAAC32F15}">
+  <dimension ref="A1:L157"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="e">
+        <f>A3* LOG(A3,2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" s="2">
+        <v>62000</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D4" si="0">C3* LOG(C3,2)</f>
+        <v>987038.79689303576</v>
+      </c>
+      <c r="E3">
+        <v>62000</v>
+      </c>
+      <c r="F3">
+        <f>E3* LOG(E3,2)</f>
+        <v>987038.79689303576</v>
+      </c>
+      <c r="H3">
+        <v>62600</v>
+      </c>
+      <c r="I3">
+        <f>H3* LOG(H3,2)</f>
+        <v>997460.57729787973</v>
+      </c>
+      <c r="K3">
+        <v>62700</v>
+      </c>
+      <c r="L3">
+        <f>K3* LOG(K3,2)</f>
+        <v>999198.34947556304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="1">A4* LOG(A4,2)</f>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="C4" s="2">
+        <v>63000</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>1004413.0451142063</v>
+      </c>
+      <c r="E4">
+        <f>E3+200</f>
+        <v>62200</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="2">E4* LOG(E4,2)</f>
+        <v>990511.7969061113</v>
+      </c>
+      <c r="H4">
+        <f>H3+50</f>
+        <v>62650</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I36" si="3">H4* LOG(H4,2)</f>
+        <v>998329.43460190122</v>
+      </c>
+      <c r="K4">
+        <f>K3+1</f>
+        <v>62701</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="4">K4* LOG(K4,2)</f>
+        <v>999215.72835993127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>21931.568569324176</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E68" si="5">E4+200</f>
+        <v>62400</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>993985.72469894716</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H36" si="6">H4+50</f>
+        <v>62700</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>999198.34947556304</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K68" si="7">K4+1</f>
+        <v>62702</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>999233.10726730851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>34652.240356149727</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="5"/>
+        <v>62600</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>997460.57729787973</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>62750</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>1000067.3218729569</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>62703</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>999250.48619769467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>47863.137138648352</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="5"/>
+        <v>62800</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>1000936.3517482469</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>62800</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1000936.3517482469</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>62704</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>999267.86515108892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>61438.561897747255</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>63000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1004413.0451142063</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>62850</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1001805.4390556704</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>62705</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>999285.24412749137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>75304.480712299453</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>63200</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1007890.6544785555</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>62900</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1002674.5837495376</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>62706</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>999302.62312690157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7000</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>89411.974447037835</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>63400</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1011369.176942556</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>62950</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1003543.785784231</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>62707</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>999320.00214931893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8000</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>103726.2742772967</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>63600</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1014848.6096257576</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>63000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1004413.0451142063</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>62708</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>999337.38119474321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>118221.38357493961</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>63800</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1018328.9496658262</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>63050</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1005282.3616939906</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>62709</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>999354.76026317419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>64000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1021810.1942183736</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>63100</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1006151.735478184</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>62710</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>999372.13935461116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>147677.37493629323</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>64200</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1025292.3404567892</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>63150</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1007021.1664214578</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>62711</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>999389.51846905402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>162608.96142459891</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>64400</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1028775.3855720736</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>63200</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1007890.6544785555</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>62712</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>999406.89760650229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>177660.91203644132</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>64600</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1032259.3267726748</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>63250</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1008760.1996042922</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>62713</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>999424.27676695574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>192823.9488940757</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>64800</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1035744.1612843259</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>63300</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1009629.801753554</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>62714</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>999441.65595041378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>208090.12320405911</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>65000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1039229.8863498853</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>63350</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1010499.4608812991</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>62715</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>999459.03515687631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>223452.54855459341</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>65200</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1042716.4992291783</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>63400</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1011369.176942556</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>62716</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>999476.41438634286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>238905.20114051129</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>65400</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1046203.9971988417</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>63450</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1012238.9498924245</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>62717</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>999493.79363881296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>254442.76714987922</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>65600</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1049692.3775521682</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>63500</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1013108.7796860751</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>62718</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>999511.17291428614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>270060.52416400774</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>65800</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1053181.6375989558</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>63550</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>1013978.666278749</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>62719</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>999528.55221276241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20000</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>285754.24759098899</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>66000</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1056671.7746653557</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>63600</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1014848.6096257576</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>62720</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>999545.9315342413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>301520.13585625781</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>66200</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1060162.7860937247</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>63650</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1015718.6096824828</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>62721</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>999563.31087872211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>317354.74987258646</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>66400</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1063654.6692424775</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>63700</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1016588.6664043763</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>62722</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>999580.69024620473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>333254.96353653929</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>66600</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1067147.4214859428</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>63750</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1017458.7797469602</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>62723</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>999598.06963668903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>349217.92284919781</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>66800</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1070641.0402142182</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>63800</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1018328.9496658262</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>62724</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>999615.44905017409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>365241.01186092029</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>67000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1074135.5228330307</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>63850</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1019199.1761166351</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>62725</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>999632.82848666003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>381321.82407288265</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>67200</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1077630.8667635943</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>63900</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1020069.4590551179</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>62726</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>999650.20794614614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>397458.13824428996</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>67400</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1081127.0694424738</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>63950</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1020939.7984370744</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>62727</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>999667.58742863231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>413647.8977881514</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>67600</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1084624.1283214469</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>64000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>1021810.1942183736</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>62728</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>999684.96693411784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29000</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>429889.19311390014</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>67800</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1088122.0408673706</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>64050</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>1022680.6463549535</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>62729</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>999702.34646260296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>446180.24640811823</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>68000</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1091620.8045620448</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>64100</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1023551.1548028211</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>62730</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>999719.72601408674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31000</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>462519.39844651788</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>68200</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1095120.4169020848</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>64150</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1024421.7195180518</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>62731</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>999737.10558856896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>478905.09710918681</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>68400</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1098620.8753987865</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>64200</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1025292.3404567892</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>62732</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>999754.48518604937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33000</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>495335.88733267778</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>68600</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1102122.1775780011</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>64250</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1026163.0175752459</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>62733</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>999771.8648065275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>511810.40228102257</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>68800</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1105624.3209800054</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>62734</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>999789.24445000303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35000</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>528327.35555624682</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>69000</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1109127.3031593775</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>62735</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>999806.62411647569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>544885.53429975838</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>69200</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1112631.1216848723</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>62736</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>999824.0038059447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>561483.7930607684</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>69400</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1116135.7741392972</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>62737</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>999841.38351841026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>578121.04832801549</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>69600</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>1119641.2581193924</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>62738</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>999858.76325387158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39000</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>594796.27363744914</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>69800</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>1123147.5712357094</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>62739</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>999876.14301232866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40000</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>611508.49518197798</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>70000</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1126654.7111124936</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>62740</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>999893.52279378078</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41000</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>628256.78786048712</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>70200</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1130162.675387566</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>62741</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>999910.90259822784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42000</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>645040.27171251562</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>70400</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1133671.4617122062</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>62742</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>999928.28242566914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43000</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>661858.10869266</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>70600</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1137181.0677510411</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>62743</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>999945.66227610479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44000</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>678709.49974517291</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>70800</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1140691.4911819266</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>62744</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>999963.04214953387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45000</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>695593.68214462919</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>71000</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1144202.7296958407</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>62745</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>999980.42204595637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46000</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>712509.9270730787</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>71200</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>1147714.780996768</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="7"/>
+        <v>62746</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="4"/>
+        <v>999997.80196537217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47000</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>729457.53740796715</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>71400</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>1151227.6428015928</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="7"/>
+        <v>62747</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="4"/>
+        <v>1000015.1819077804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48000</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>746435.84569839563</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>71600</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>1154741.3128399912</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>62748</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>1000032.5618731808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49000</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>763444.21231008752</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>71800</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>1158255.7888543203</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>62749</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>1000049.941861573</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50000</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>780482.02372184058</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>72000</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>1161771.0685995168</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>62750</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>1000067.3218729569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51000</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>797548.69095831283</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>72200</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>1165287.1498429889</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>62751</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>1000084.7019073319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52000</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>814643.6481457653</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>72400</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>1168804.0303645141</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>62752</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>1000102.0819646978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53000</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>831766.35117894027</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>72600</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>1172321.7079561367</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>62753</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>1000119.4620450541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54000</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>848916.27648857993</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>72800</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>1175840.1804220653</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>62754</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>1000136.8421484004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55000</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>866092.91990027099</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>73000</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>1179359.4455785737</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>62755</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>1000154.2222747363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56000</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>883295.7955763028</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>73200</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>1182879.5012539017</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>62756</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>1000171.6024240615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57000</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>900524.4350331293</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>73400</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>1186400.3452881565</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>62757</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>1000188.9825963757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58000</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>917778.38622780028</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>73600</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>1189921.975533216</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>62758</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>1000206.3627916788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59000</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>935057.21270741173</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>73800</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>1193444.3898526318</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>62759</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>1000223.7430099697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60000</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>952360.49281623645</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>74000</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>1196967.5861215368</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>62760</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>1000241.1232512486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61000</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>969687.81895572355</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>74200</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>1200491.5622265483</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>62761</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>1000258.5035155151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>62000</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="1"/>
+        <v>987038.79689303576</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>74400</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>1204016.316065677</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>62762</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>1000275.8838027687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>63000</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="1"/>
+        <v>1004413.0451142063</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>74600</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>1207541.8455482353</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>62763</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>1000293.2641130089</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64000</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>1021810.1942183736</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>74800</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>1211068.1485947447</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="7"/>
+        <v>62764</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>1000310.6444462357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65000</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B131" si="8">A68* LOG(A68,2)</f>
+        <v>1039229.8863498853</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>75000</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="9">E68* LOG(E68,2)</f>
+        <v>1214595.2231368476</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>62765</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L71" si="10">K68* LOG(K68,2)</f>
+        <v>1000328.0248024485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66000</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="8"/>
+        <v>1056671.7746653557</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E132" si="11">E68+200</f>
+        <v>75200</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>1218123.0671172177</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K71" si="12">K68+1</f>
+        <v>62766</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="10"/>
+        <v>1000345.4051816469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67000</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="8"/>
+        <v>1074135.5228330307</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>75400</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>1221651.6784894716</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="12"/>
+        <v>62767</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="10"/>
+        <v>1000362.7855838306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68000</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="8"/>
+        <v>1091620.8045620448</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>75600</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>1225181.0552180824</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="12"/>
+        <v>62768</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>1000380.1660089992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69000</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="8"/>
+        <v>1109127.3031593775</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>75800</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>1228711.1952782928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70000</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>1126654.7111124936</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>76000</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>1232242.0966560312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71000</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>1144202.7296958407</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>76200</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>1235773.7573478252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72000</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>1161771.0685995168</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>76400</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>1239306.1753607204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73000</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>1179359.4455785737</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>76600</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>1242839.3487121956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74000</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>1196967.5861215368</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>76800</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>1246373.2754300837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75000</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>1214595.2231368476</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>77000</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>1249907.9535524882</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76000</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>1232242.0966560312</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>77200</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>1253443.3811277046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77000</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>1249907.9535524882</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>77400</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>1256979.556214141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78000</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="8"/>
+        <v>1267592.5472748983</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>77600</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>1260516.4768802398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79000</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="8"/>
+        <v>1285295.6375942961</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="11"/>
+        <v>77800</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>1264054.1412043993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80000</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>1303016.990363956</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>78000</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>1267592.5472748983</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81000</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>1320756.3772912836</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="11"/>
+        <v>78200</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>1271131.6931898184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82000</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>1338513.5757209742</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="11"/>
+        <v>78400</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>1274671.5770569707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83000</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>1356288.3684287481</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>78600</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>1278212.1969938199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84000</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>1374080.5434250312</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="11"/>
+        <v>78800</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>1281753.5511274107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85000</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>1391889.893767982</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="11"/>
+        <v>79000</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>1285295.6375942961</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86000</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>1409716.21738532</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="11"/>
+        <v>79200</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>1288838.4545404634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87000</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>1427559.316904441</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="11"/>
+        <v>79400</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>1292382.000121264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88000</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>1445418.9994903458</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="11"/>
+        <v>79600</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>1295926.2725013425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89000</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="8"/>
+        <v>1463295.0766909353</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="11"/>
+        <v>79800</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>1299471.2698545663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90000</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="8"/>
+        <v>1481187.3642892586</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="11"/>
+        <v>80000</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>1303016.990363956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91000</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="8"/>
+        <v>1499095.6821623312</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="11"/>
+        <v>80200</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>1306563.4322216175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92000</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="8"/>
+        <v>1517019.8541461574</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="11"/>
+        <v>80400</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>1310110.5936286738</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93000</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="8"/>
+        <v>1534959.707906621</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="11"/>
+        <v>80600</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>1313658.4727951968</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94000</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="8"/>
+        <v>1552915.0748159341</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="11"/>
+        <v>80800</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>1317207.0679401427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95000</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="8"/>
+        <v>1570885.7898343385</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="11"/>
+        <v>81000</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>1320756.3772912836</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96000</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="8"/>
+        <v>1588871.6913967913</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="11"/>
+        <v>81200</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>1324306.399085144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>97000</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="8"/>
+        <v>1606872.621304374</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="11"/>
+        <v>81400</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>1327857.1315669352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98000</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="8"/>
+        <v>1624888.424620175</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="11"/>
+        <v>81600</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>1331408.5729904915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99000</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="8"/>
+        <v>1642918.9495694281</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="11"/>
+        <v>81800</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="9"/>
+        <v>1334960.7216182074</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100000</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="8"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="11"/>
+        <v>82000</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="9"/>
+        <v>1338513.5757209742</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>101000</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="8"/>
+        <v>1679023.5725088024</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="11"/>
+        <v>82200</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="9"/>
+        <v>1342067.1335781165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>102000</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="8"/>
+        <v>1697097.3819166254</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="11"/>
+        <v>82400</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="9"/>
+        <v>1345621.3934773346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>103000</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="8"/>
+        <v>1715185.3356200664</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="11"/>
+        <v>82600</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="9"/>
+        <v>1349176.3537146386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>104000</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="8"/>
+        <v>1733287.2962915306</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="11"/>
+        <v>82800</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="9"/>
+        <v>1352732.0125942915</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>105000</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="8"/>
+        <v>1751403.1292444621</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="11"/>
+        <v>83000</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>1356288.3684287481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>106000</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="8"/>
+        <v>1769532.7023578803</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="11"/>
+        <v>83200</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="9"/>
+        <v>1359845.4195385959</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>107000</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="8"/>
+        <v>1787675.8860037662</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="11"/>
+        <v>83400</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="9"/>
+        <v>1363403.164252497</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>108000</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="8"/>
+        <v>1805832.5529771599</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="11"/>
+        <v>83600</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="9"/>
+        <v>1366961.6009071288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>109000</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="8"/>
+        <v>1824002.5784288526</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="11"/>
+        <v>83800</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="9"/>
+        <v>1370520.7278471277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>110000</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="8"/>
+        <v>1842185.8398005422</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="11"/>
+        <v>84000</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="9"/>
+        <v>1374080.5434250312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>111000</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="8"/>
+        <v>1860382.2167623537</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="11"/>
+        <v>84200</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="9"/>
+        <v>1377641.0460012225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>112000</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="8"/>
+        <v>1878591.5911526054</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="11"/>
+        <v>84400</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="9"/>
+        <v>1381202.2339438731</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>113000</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="8"/>
+        <v>1896813.8469197322</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="11"/>
+        <v>84600</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="9"/>
+        <v>1384764.1056288895</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>114000</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="8"/>
+        <v>1915048.8700662588</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="11"/>
+        <v>84800</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="9"/>
+        <v>1388326.659439856</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>115000</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="8"/>
+        <v>1933296.5485947432</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="11"/>
+        <v>85000</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="9"/>
+        <v>1391889.893767982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>116000</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="8"/>
+        <v>1951556.7724556008</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="11"/>
+        <v>85200</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="9"/>
+        <v>1395453.8070120479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>117000</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="8"/>
+        <v>1969829.4334967225</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="11"/>
+        <v>85400</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="9"/>
+        <v>1399018.3975783512</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>118000</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="8"/>
+        <v>1988114.4254148235</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="11"/>
+        <v>85600</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="9"/>
+        <v>1402583.6638806544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>119000</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="8"/>
+        <v>2006411.643708434</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="11"/>
+        <v>85800</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="9"/>
+        <v>1406149.6043401323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>120000</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="8"/>
+        <v>2024720.9856324729</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="11"/>
+        <v>86000</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="9"/>
+        <v>1409716.21738532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>121000</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="8"/>
+        <v>2043042.3501543384</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="11"/>
+        <v>86200</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="9"/>
+        <v>1413283.5014520616</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>122000</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="8"/>
+        <v>2061375.6379114469</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="11"/>
+        <v>86400</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="9"/>
+        <v>1416851.45498346</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>123000</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="8"/>
+        <v>2079720.7511701635</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="11"/>
+        <v>86600</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="9"/>
+        <v>1420420.0764298255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>124000</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="8"/>
+        <v>2098077.5937860715</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="11"/>
+        <v>86800</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="9"/>
+        <v>1423989.3642486271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>125000</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="8"/>
+        <v>2116446.0711655216</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="11"/>
+        <v>87000</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="9"/>
+        <v>1427559.316904441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>126000</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="8"/>
+        <v>2134826.0902284128</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="11"/>
+        <v>87200</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="9"/>
+        <v>1431129.932868904</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>127000</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="8"/>
+        <v>2153217.5593721499</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="11"/>
+        <v>87400</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="9"/>
+        <v>1434701.2106206634</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>128000</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="8"/>
+        <v>2171620.3884367472</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="11"/>
+        <v>87600</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="9"/>
+        <v>1438273.1486453286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>129000</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B157" si="13">A132* LOG(A132,2)</f>
+        <v>2190034.4886710094</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="11"/>
+        <v>87800</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F157" si="14">E132* LOG(E132,2)</f>
+        <v>1441845.7454354255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>130000</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="13"/>
+        <v>2208459.7726997705</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E133:E157" si="15">E132+200</f>
+        <v>88000</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="14"/>
+        <v>1445418.9994903458</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>131000</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="13"/>
+        <v>2226896.1544921394</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="15"/>
+        <v>88200</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="14"/>
+        <v>1448992.9093163041</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>132000</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="13"/>
+        <v>2245343.5493307114</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="15"/>
+        <v>88400</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="14"/>
+        <v>1452567.4734262882</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>133000</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="13"/>
+        <v>2263801.8737817155</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="15"/>
+        <v>88600</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="14"/>
+        <v>1456142.6903400153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>134000</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="13"/>
+        <v>2282271.0456660613</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="15"/>
+        <v>88800</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="14"/>
+        <v>1459718.558583885</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>135000</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="13"/>
+        <v>2300750.9840312442</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="15"/>
+        <v>89000</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="14"/>
+        <v>1463295.0766909353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>136000</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="13"/>
+        <v>2319241.6091240896</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="15"/>
+        <v>89200</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="14"/>
+        <v>1466872.2432007967</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>137000</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="13"/>
+        <v>2337742.8423642982</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="15"/>
+        <v>89400</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="14"/>
+        <v>1470450.0566596491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>138000</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="13"/>
+        <v>2356254.6063187551</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="15"/>
+        <v>89600</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="14"/>
+        <v>1474028.5156201767</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>139000</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="13"/>
+        <v>2374776.8246765975</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="15"/>
+        <v>89800</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="14"/>
+        <v>1477607.6186415253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>140000</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="13"/>
+        <v>2393309.4222249873</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="15"/>
+        <v>90000</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="14"/>
+        <v>1481187.3642892586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>141000</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="13"/>
+        <v>2411852.3248255844</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="15"/>
+        <v>90200</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="14"/>
+        <v>1484767.7511353155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>142000</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="13"/>
+        <v>2430405.4593916815</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="15"/>
+        <v>90400</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="14"/>
+        <v>1488348.7777579681</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>143000</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="13"/>
+        <v>2448968.753865988</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="15"/>
+        <v>90600</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="14"/>
+        <v>1491930.4427417791</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>144000</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="13"/>
+        <v>2467542.1371990335</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="15"/>
+        <v>90800</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="14"/>
+        <v>1495512.7446775602</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>145000</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="13"/>
+        <v>2486125.5393281677</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="15"/>
+        <v>91000</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="14"/>
+        <v>1499095.6821623312</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>146000</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="13"/>
+        <v>2504718.8911571475</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="15"/>
+        <v>91200</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="14"/>
+        <v>1502679.2537992795</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>147000</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="13"/>
+        <v>2523322.1245362721</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="15"/>
+        <v>91400</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="14"/>
+        <v>1506263.4581977173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>148000</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="13"/>
+        <v>2541935.1722430736</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="15"/>
+        <v>91600</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="14"/>
+        <v>1509848.293973045</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>149000</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="13"/>
+        <v>2560557.9679635135</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="15"/>
+        <v>91800</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="14"/>
+        <v>1513433.7597467073</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>150000</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="13"/>
+        <v>2579190.4462736952</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="15"/>
+        <v>92000</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="14"/>
+        <v>1517019.8541461574</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>151000</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="13"/>
+        <v>2597832.5426220624</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="15"/>
+        <v>92200</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="14"/>
+        <v>1520606.5758048147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>152000</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="13"/>
+        <v>2616484.1933120624</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="15"/>
+        <v>92400</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="14"/>
+        <v>1524193.9233620283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>153000</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="13"/>
+        <v>2635145.3354852754</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="15"/>
+        <v>92600</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="14"/>
+        <v>1527781.8954630375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>154000</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="13"/>
+        <v>2653815.9071049765</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="15"/>
+        <v>92800</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="14"/>
+        <v>1531370.4907589331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>